--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
@@ -63,6 +63,13 @@
     <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
     <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
     <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18674,6 +18681,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>52.67502314033858</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.280025716125965</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5267502314033858</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5050982643074333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>52.38349812714642</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9352264742056529</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5238349812714642</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5031986575548724</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.07050233998564</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8958414929608504</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6007050233998564</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5794172290400894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.78001539805707</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9254517942667008</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5978001539805707</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5951029063439079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.36342874938365</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8981309140721956</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6236342874938364</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6162165818318325</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72.5038278877845</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6873595935602983</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.725038278877845</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7236923815592861</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.33697523334977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.335893275340398</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4433697523334977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4080315340085024</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.28774470367391</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.125090457995733</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.532877447036739</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5234388672364417</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.24247614598742</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.000086772938569</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6024247614598742</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5907933371345032</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.73229872230729</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8429280802607536</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6373229872230729</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6354024163911476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.08804574434034</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.075385581701994</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5808804574434034</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5656016106032219</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>49.40812636787516</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.028515690565109</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4940812636787515</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4846660887639349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>76.00636683708336</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5915222259859243</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7600636683708337</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7585396150238297</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86.13811538162095</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3482574054117625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8613811538162095</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8599459639130911</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.48650074827637</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2896268539130687</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8948650074827637</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8946782215139424</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.7001963684807</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8839561552869984</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.627001963684807</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6162549116817357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.38429398178184</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9063249816497165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6438429398178185</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6375567708342628</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60.7047638820405</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8579299489657085</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6070476388204049</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6000261623931542</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.03427365288627</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.873044158021609</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6203427365288627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6174912041783427</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.12069308558033</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8820059532920519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6212069308558033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6181201147004799</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.80142561786866</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9444460300107798</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6480142561786867</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6247720611941029</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.59023001929082</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.015613328417142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6059023001929082</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6031528209923447</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58.96590800958486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.02131741642952</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5896590800958486</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.589489776140517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55.28533983857992</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.11857304473718</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5528533983857992</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5437372835229409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>62.49898355522107</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9131868024667105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6249898355522107</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6233450284090825</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.31177605342607</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7140623547136784</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7131177605342607</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7123640147386998</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>63.94112405816659</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9609293080866337</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6394112405816659</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6353910910691353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.44936374882136</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8262758033970992</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6644936374882136</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6496907130488497</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.85926348843847</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5291652716075381</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8085926348843848</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8068748116886082</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.88787100234431</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5447241455316544</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7788787100234431</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.775221389264013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>72.51178643413871</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7670321580022573</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7251178643413871</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7149998191973047</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.62313976187799</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8583087136886187</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6562313976187799</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6501488707581227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>63.32563430479503</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.976581396907568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6332563430479502</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6211037778475218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.91386603690344</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8251271143555641</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6291386603690343</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6240202669652346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>64.28187095044075</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8102301148076853</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6428187095044076</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6352855849509932</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.14898052751321</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8893163214127224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6214898052751321</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6190692726269562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.09761330115313</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9227203324437141</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6409761330115312</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6222936432409839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.04395366741927</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9877571821212768</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6104395366741927</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.604883345120628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>55.74953070528291</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.083894991874695</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5574953070528291</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5466528014620837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.45868908900596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.055719062685966</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5445868908900596</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5368178261205937</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.32301317485445</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.922019375860691</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6032301317485446</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6017258784801696</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.40164707307156</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6682146896918615</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7040164707307157</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.704739994228442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>62.16861737558283</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.959754261871179</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6216861737558284</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6142695858786892</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.80107094352028</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.911490935087204</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6380107094352028</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6320696334474152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.16029550428638</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5409392235179742</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8016029550428637</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7989132617520255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.41450185555239</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5943952019015948</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7641450185555239</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7624122676742675</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>72.29889531916366</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7417888487999639</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7229889531916366</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7124672298431328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.90587865523635</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8593299368893106</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6490587865523635</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6424482913092757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -19017,6 +20074,1406 @@
       </c>
       <c r="E17" t="n">
         <v>0.9214718229566198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.92961876832844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9889007469018299</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5392961876832845</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5288766952516532</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58.18536492530212</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8566110630830129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5818536492530212</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.571895088063456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58.94679019714704</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8824129283428193</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5894679019714704</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5855846814558607</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>52.31602349501293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.018296954035759</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5231602349501293</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5202146960774882</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.71516189586415</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8963833024104437</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6271516189586415</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6190236644050664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.74341473542158</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9341607987880707</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5874341473542158</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5792767794113524</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46.75654633690603</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.204225862026215</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4675654633690603</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4384528601753184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47.51243522867845</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.089931694666544</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4751243522867845</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4714126533389229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>45.74996323497608</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.139111414551735</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4574996323497608</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4385473908582675</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59.80985994688535</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8600131789843241</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5980985994688536</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5971849968590867</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>51.75416742359363</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.052805397907893</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5175416742359362</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.51367622292698</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.39129231221723</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9973728587230047</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5339129231221723</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5163637442719942</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72.12311525186205</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6652993246912956</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7212311525186204</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7163767855131125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>72.56680421110909</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6439901252587636</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7256680421110909</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.72452111428607</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.10067561138072</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8825541670123735</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6810067561138072</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6619296186489583</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>57.50674890497898</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9408046544922721</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5750674890497899</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5655557994362391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.23332381768008</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9261558999617895</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6223332381768009</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6061107468236825</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64.39571276568137</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7650145277380943</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6439571276568137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6410754609734266</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65.36726096246507</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8116597558061281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6536726096246508</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6496066903560669</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.00059689097657</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.052129985392094</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5900059689097656</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5808757004517953</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.98360712462912</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9098560409620404</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6498360712462911</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6378170032157722</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.74257562781685</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9712422957022986</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6174257562781685</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6136247009798379</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60.28624815093556</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.01365235298872</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6028624815093556</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5926140632513048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.04830491613249</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.071965219577153</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5404830491613249</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5333770151928637</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.28693154785076</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.002320037285487</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5928693154785076</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5843165077489527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.17101359008296</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7376873781904578</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6917101359008295</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.691915201716916</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>62.67216844436371</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9344364657998085</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6267216844436371</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6271368081399045</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.8585281879601</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.810403491059939</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6585852818796011</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6537682643930033</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>76.24460419207779</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6275830729554097</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7624460419207779</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7552583297133653</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.7967802489641</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5536670704682668</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7779678024896409</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7727931119154257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>72.22216455159648</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7566600789626439</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7222216455159647</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7116878315276376</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.0206547346142</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8629622448566888</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6502065473461421</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6434651624266636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>59.84826858363827</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9757983639836312</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5984826858363826</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5907468891788912</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.06481024922361</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8295058328658342</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6206481024922361</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6087352388259273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.85952300625438</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8760807285706201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6085952300625438</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.604556131430384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.05942957984066</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9620920037229856</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6005942957984065</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5959816529403229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.80454848225331</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8195490978037319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.658045484822533</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6387228173091974</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.06271680550869</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9826078514258066</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.600627168055087</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5991642263993159</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.11737990813069</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9908605555693308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.591173799081307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5844607944657016</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.28047820482876</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.052256731192271</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5328047820482876</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5253334086693373</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.52413948217545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.987551389137904</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6052413948217545</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5975420300846197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.75282658154482</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8130719353755316</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6675282658154482</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6620592334261571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59.35250304933434</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.025519568348924</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5935250304933434</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5901759222047251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.15507054559296</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.848106075823307</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6615507054559295</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6531417184754992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79.50648362010051</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5052111860364675</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7950648362010051</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7945780114623435</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.61977179733388</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6063479982316494</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7561977179733389</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7527315925949906</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>74.09813233678491</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6720116298645735</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7409813233678492</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7374733734109585</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.20707214883636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8631047298635047</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6420707214883635</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6356935360585582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>47.96148755612073</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.198446701963742</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4796148755612073</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4621029943182992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.62987569096619</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.950266974667708</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362987569096618</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5000767720454301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.02363342243444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8639091024796167</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6202363342243445</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6147685976275341</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.23811624668033</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9839588056008021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5623811624668034</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5566549870240884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.52585229976038</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9484336445728937</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5852585229976037</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5764791702686944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72.6520125606623</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7608774304389954</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7265201256066229</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7209789657515401</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41.80321629079837</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.179498366514842</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4180321629079836</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4038000793832225</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50.11124663708163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.16315328280131</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5011124663708164</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4842477380662465</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.2022335833355</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.030820102989674</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5820223358333549</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5683615974069254</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.84942776321594</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.819437835117181</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6384942776321594</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6305096115485777</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.84367511829687</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9862588662654161</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5884367511829687</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5735775824473717</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>44.96682497253437</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.093313326438268</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4496682497253436</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4369167835258656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>69.23260581838943</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7811671794702609</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6923260581838944</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6729568320478925</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.6657843060926</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4119921727416416</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8466578430609261</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.836539803307222</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>86.42332546129292</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3627020306264361</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8642332546129291</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8641165342352091</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.60862118184414</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9022823881792524</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6060862118184414</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5934725366002744</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
@@ -28,6 +28,20 @@
     <sheet name="rational_quadratic_sr_0.5" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="generalized_gaussian_sr_0.5" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="sigmoid_sr_0.5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="exponential_sr_0.4" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="gaussian_sr_0.4" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="inverse_sr_0.4" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="powerlaw_sr_0.4" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="rational_quadratic_sr_0.4" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="generalized_gaussian_sr_0.4" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="sigmoid_sr_0.4" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="exponential_sr_0.3" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="gaussian_sr_0.3" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="inverse_sr_0.3" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="powerlaw_sr_0.3" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="rational_quadratic_sr_0.3" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="generalized_gaussian_sr_0.3" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sigmoid_sr_0.3" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5339,6 +5353,2806 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.88200589970502</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2682292969358969</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8988200589970502</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8969325352229653</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.03279440133565</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2235096820872665</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9103279440133566</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9104839337182249</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.30383480825958</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1861550504661864</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9330383480825958</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9319088996688472</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.89085545722715</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1834393280209042</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9289085545722713</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9276778687216142</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.84365781710915</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3848704026056415</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8684365781710914</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.861905658930968</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.47492625368731</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2202150174392349</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9147492625368731</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9134746452062641</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.58407079646017</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3849564101411185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8858407079646018</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8812296198480999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2603340143609482</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9017070691418025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.23598820058996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2499513600273834</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9023598820058997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9009268692293577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.56047197640119</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2600844108383171</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9056047197640119</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9054408858589961</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.9882005899705</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5337467263219878</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8598820058997051</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8516425370757752</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.07374631268436</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5049509837874211</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8507374631268437</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8358746421764275</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.75811209439527</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08862977870345881</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9775811209439528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9775945904150192</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.64011799410029</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05838440464040105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.976401179941003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9765627178445737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.109541260941478</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9666666666666666</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9661999380749426</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.2251951429799</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2611332084878429</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.912251951429799</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9093041607422587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.32448377581122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2812921617592413</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.903244837758112</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.901538385460689</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.20648967551622</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2371856200159527</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9020648967551622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.90153579803817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.48377581120944</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1538985081715509</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9448377581120944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9449897566354858</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.39233038348083</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.190702997758126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9339233038348083</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9332605642623124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4200343636795879</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.858702064896755</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8530811860388825</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.85840707964601</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2251772929341921</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9185840707964601</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9165301228031257</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.0117994100295</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4790962386740527</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.840117994100295</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8356082698415983</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.8259587020649</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2461385891248938</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9082595870206489</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9077516438653778</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.32153392330383</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2615793957501106</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8932153392330383</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8921645117571391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.26843657817109</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2513890819359706</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9126843657817109</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9132728350954189</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.92920353982302</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.49696406047539</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8592920353982301</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.848035574328137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.33923303834808</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.467867669906506</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8533923303834807</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8439896531564275</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.90265486725664</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1053740576609319</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9690265486725664</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9688581909978652</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.20058997050147</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05217561881321066</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9820058997050147</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9821634140680173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.4896755162242</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.105863845964844</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9648967551622419</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.964181033156135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.96165191740413</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.264982633508304</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9096165191740412</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9071307293003188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.31563421828909</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3022858917034076</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.873156342182891</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8711835377622016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.14159292035399</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2871163133143758</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8814159292035398</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8800002457794591</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.27433628318583</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1773212181627362</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9327433628318584</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9327869864378646</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.24483775811208</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1930414259050546</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.932448377581121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.931671679384945</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.51622418879056</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4972496094114224</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8551622418879056</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8401226236367402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.33038348082596</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2180675341446962</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9233038348082596</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9220881670350014</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.83480825958702</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4959449970473845</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8383480825958702</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8325084949394865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.14749262536873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2559595925384201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9014749262536872</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9017981842226636</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.99705014749262</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3077244904765394</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8899705014749262</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.889472719539809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.25663716814159</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3613241319224471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8725663716814159</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8725527230253611</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.98525073746313</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5253900237032212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8498525073746312</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8457210201669587</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.24188790560473</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5344616937451064</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8224188790560472</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8171201326208639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.40412979351032</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1030725284888225</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9740412979351033</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9740092683753255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.20058997050147</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05854562150313238</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9820058997050147</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9821741251320013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.43362831858408</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07822395524960182</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9743362831858408</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9738985768446063</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.02163225172075</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2930486018210912</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9002163225172075</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8978072323268859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.22713864306785</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3049275332731971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8722713864306785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8732697194714714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.9887196256023</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.349127809315299</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8598871962560229</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8595136572202173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.03834808259587</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1756995601191496</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9303834808259588</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9286570889212984</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.02967153695101</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2414063775785811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9002967153695101</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8979861432320279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.89085545722715</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4773715657637997</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8289085545722713</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8190681615077698</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.38643067846608</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2248139405273832</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9138643067846608</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9127929415976809</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.65486725663717</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5274572294011401</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8265486725663717</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8243790326607947</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.93805309734515</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2748261651780922</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8893805309734514</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8884646309894093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.16519174041298</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3365426313520098</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8616519174041297</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8588016546817234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.5575221238938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2728881641834353</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8955752212389381</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8943556376276856</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.25403333938876</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4729199172938631</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8625403333938875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8592912878985789</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.83185840707964</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4839180170141238</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8283185840707965</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8167549144321645</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.10914454277285</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09937106489875684</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9710914454277286</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9710735692948063</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.87627920656753</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06256296570039316</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9787627920656753</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9789655583525748</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.63716814159292</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09840227577636446</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9663716814159292</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.965700782234164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.23901879197339</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2934823478250392</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8923901879197339</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8899383186748244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.43952802359881</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2759655083422937</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8943952802359881</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8933659937090415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.58719366084482</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2513240350837199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8958719366084482</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8927429644175897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.42477876106196</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1534618978999788</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9442477876106196</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9443657061437867</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.32743362831859</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2524571237938896</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9099351297119828</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.39823008849558</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3928833657492456</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8539823008849557</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8494109203042439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3171333216683706</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9008918408202261</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.39823008849558</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5265168558922596</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8539823008849557</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8443382259308875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.73746312684366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2517229546994106</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9073746312684365</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9055082345611998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.61356932153392</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3265969743622312</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8861356932153391</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8767863734876264</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.23893805309734</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2586633390191613</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9123893805309734</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9123686237184904</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>87.43362831858407</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4946297039239047</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8743362831858408</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8687942292374041</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.98230088495575</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.463642211156548</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8398230088495575</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.832466227979506</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.10914454277285</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09659200378106712</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9710914454277286</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.970995520921907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.40117994100294</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09825691409831355</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9640117994100296</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9645732157034924</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.0117994100295</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1541475206018807</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.940117994100295</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9382251812349111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.3933252017751</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2875995820048183</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9039332520177509</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9003178925254862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.90577773164128</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2870940683991648</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8790577773164128</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8787452357104832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>86.28422391197157</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3310213421859468</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8628422391197155</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8541830980722557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.94985250737463</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1980784246445789</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9294985250737463</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.929009681085286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.35120546025485</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.306531833603367</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8935120546025483</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8896701738227119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.48377581120944</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4963254731245494</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8448377581120944</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8301116397613951</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.76991150442477</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2325513881184937</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9176991150442477</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9156705931801288</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.28023598820059</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4414389012148604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8528023598820059</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8446066946667822</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.26253687315634</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2680492078012321</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8926253687315635</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8932342186570542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.25958702064898</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3075816408013149</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8825958702064897</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8738766933023673</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.96460176991151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3362892233087525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.879646017699115</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8788534489755302</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.30678466076697</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5489546524933151</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8430678466076695</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8420495897659327</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.88790560471976</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5543967344487707</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8188790560471977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8016044666367892</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1056919373830775</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9678466076696164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9677537086298234</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.90560471976401</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06147777955435838</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9790560471976402</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9792744192878473</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.28613569321534</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09383502896970033</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9728613569321534</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9725426624052241</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.44552000161477</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3046211757367655</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8944552000161476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8900790882639742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2121018428719253</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9162939700565209</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92.41905206792447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2277606438302124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9241905206792447</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9225242352165411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.83480825958702</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1684553576960752</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9383480825958703</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9367856711834346</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.85840707964601</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.244095016237164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9185840707964601</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9138972563087725</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.28613569321534</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3823003933449703</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8728613569321533</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8666316754666898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3249283715810937</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9038135811214542</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.31563421828909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3962355196747619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.873156342182891</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8642117992236846</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2144464667493594</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9096840159501184</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.70501474926253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2803522326595461</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8970501474926253</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8935591197618432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.47197640117994</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2497419397664392</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9047197640117994</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9049101352379504</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4832768892510406</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8587020648967553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8467558065423566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.74631268436579</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5601028253004188</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8374631268436579</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8232199304412819</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.61061946902655</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09172810874063847</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9761061946902656</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9762035389834866</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.73156342182889</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03580605873906204</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9873156342182892</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9873129529397466</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.22713864306785</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09386606954473488</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9722713864306785</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9717343903678503</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.33137829912022</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2643465157324962</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9133137829912025</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9091692052534486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.66666666666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3294702734448947</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8657666219900551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.77581120943952</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4314700720288481</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8377581120943953</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8254021203047761</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.203167267725803</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9155241327666184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.32743362831859</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2223503251070118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9104545159344</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.93510324483776</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3229981406366278</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8793510324483776</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8775414627436453</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.73746312684366</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.264223980740644</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9073746312684365</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9050827425862312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.81120943952803</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4300484557286836</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8581120943952802</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8513273158384731</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.66666666666666</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3234847977699246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8670636551786789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.6283185840708</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5120071776832144</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.836283185840708</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8244500731897519</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.28613569321534</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4270436249729149</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8728613569321533</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8723131769468878</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.53542840538236</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8587020648967553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8522956653569482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.0589970501475</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5601266949942025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.800589970501475</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.799329645284993</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.57817109144543</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.124113617745752</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9657817109144542</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9653675158544349</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.8731563421829</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08791429340326432</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9687315634218289</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9687965873125872</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.03834808259587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1999577696603713</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9303834808259588</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9271281743293234</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.52900688298919</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3315869931349678</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8852900688298919</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.881856227041187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5682,6 +8496,2106 @@
       </c>
       <c r="E17" t="n">
         <v>0.9222294832100019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.3137224370453</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3417233239781732</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8631372243704531</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8628550307256646</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.01474926253687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3769870700547472</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8501474926253687</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8499524500123226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.61356932153393</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3175494424242061</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8861356932153391</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8843622451148965</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.41887905604719</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2051047255202017</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.924188790560472</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9230859727201496</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.89970501474926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4724037397061086</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8589970501474926</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8502099240190976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.99410029498526</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3281476120503309</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8799410029498524</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8793143393926066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.07079646017699</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5468887142138555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8407079646017699</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8273810354860279</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.07669616519175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3588134009138836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8607669616519175</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8530846127980187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.69911504424779</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3325951151433401</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.876991150442478</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8723827405647219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.27728613569322</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4569735030546629</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8427728613569322</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8437236921347242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.25073746312685</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.538035840599332</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8525073746312684</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8487011851326207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4069348909639909</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8388224259286716</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.54572271386431</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1396857793816404</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.955457227138643</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9552113623493279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.3716814159292</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1125092269615682</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9638090946912422</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.16224188790561</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.124507107608224</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9516224188790561</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9507164215016563</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.31078700219436</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.337257299504951</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8831078700219437</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8802408355047834</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.92920353982301</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3751216815241302</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8592920353982301</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8569364492707402</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.77876106194689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3635982683394104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8477876106194691</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8465548597017595</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.05604719764013</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.276369471483243</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8905604719764012</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8879998837978056</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.47787610619469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2183980921724166</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9247787610619469</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9230010827965603</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.95575221238938</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3926831285464384</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8495575221238937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8455693883087154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.82300884955751</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3337198744023529</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8982300884955752</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.889688160984956</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.9410029498525</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.560878421839637</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7994100294985251</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7962466494060407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.28908554572271</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3147802110256938</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8828908554572271</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8824237965214907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.81710914454277</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3034674784517847</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8781710914454276</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8744309320209809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.00884955752213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4573571098493024</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8300884955752214</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8310024345267685</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5757774165521065</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8504424778761063</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8475522075912675</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.32743362831857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4880387745720024</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8132743362831858</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.804373357020989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1262647703944822</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9604157562231137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.37252917412781</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1456089003467544</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9437252917412782</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9443072300329345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.79428887793146</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3757452247305385</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8979428887793148</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8910931719408621</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.51082621821986</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.353853921615353</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8751082621821989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8721063573429989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.37489943684633</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5220338951485852</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7837489943684635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7759025124203456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.30383480825958</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3881226778108006</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8330383480825958</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8311364554886158</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.05014749262537</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3293052718082133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8705014749262536</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8637117603589083</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.23893805309734</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.242677674095224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9123893805309734</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.909530832580822</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.5103244837758</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5473837494074056</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.835103244837758</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8131577219958531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.13091808752671</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5131907505798153</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8413091808752672</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8372300868996408</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.02377183193627</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6573663115501404</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7802377183193626</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7637440439051997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.92330383480825</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4173194043959181</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8392330383480825</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8360719114314954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.43657817109144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6372874272211144</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7843657817109145</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7722498530831416</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.50442477876106</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4786862049717456</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8150442477876106</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.816094621393697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.1858407079646</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5369557599614685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.831858407079646</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8297719210618133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.47232242493448</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5064197180482248</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8047232242493447</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7974045565358823</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.07669616519175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1367093837872138</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9607669616519174</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9605273832523894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.57227138643069</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1575709627274288</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9457227138643068</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9445848227426451</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.90020674919333</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1683727417912451</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9390020674919333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9383457483518873</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.18029856082954</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4159601288869696</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8518029856082951</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8459642821001557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.77876106194689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4301482561568264</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8477876106194691</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8396656415987419</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.00589970501474</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4274928629243125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8200589970501475</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8209196274184567</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.84660766961652</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2807777737325523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8784660766961652</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8777954465630243</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1685027056177205</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9321533923303835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9314968530246149</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.81120943952803</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4142450980948827</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8581120943952802</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8499456362693494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.53097345132744</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3475615236403731</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9053097345132743</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8987983006578026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.30088495575221</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.433149445313029</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8230088495575221</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.822246519265543</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.57522123893806</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3595285201212391</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8557522123893806</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8529050589743778</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.58112094395281</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3975563987895536</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8758112094395279</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8643974447638889</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.13569321533923</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4254215231184692</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8613569321533923</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8630054189538185</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.28023598820059</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5713427288001791</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8528023598820059</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8435094326759021</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.50442477876106</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5298807870751868</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8150442477876106</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8097327924665061</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.87107154906184</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1363380931851376</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9587107154906185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9584702749934693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.07668751459786</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1286734948536226</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9507668751459788</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9511143546490342</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.10324483775811</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1340068805367385</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9510324483775812</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.950765506410448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.90782503885558</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3456417394639882</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8790782503885558</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8756512205789985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.01474926253687</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3850409848984176</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8501474926253687</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8498155171771737</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.5693215339233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4220564141636715</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.835693215339233</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8292777327389459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.57817109144543</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3323070401869093</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8657817109144542</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8606572442295333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2528694074536664</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9058497136602078</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.30973451327434</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4081613512901338</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8530973451327434</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8484035288553813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.43952802359881</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3542319269229968</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8943952802359881</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8874734296610558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.70501474926253</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6154050989697377</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7970501474926254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8005614591838917</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.69321533923303</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3723937455293101</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8569321533923304</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8493585929137757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.69616519174042</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3193134380523891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8669616519174042</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8665453556169602</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.5103244837758</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4794917353855756</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.835103244837758</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8347739692050548</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.42477876106196</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5382066617215362</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8442477876106194</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8422774351693455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.12389380530973</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4516483318603908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8212389380530973</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8169393193239175</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.31268436578171</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1171170057399043</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9631268436578171</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9630688525129226</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.95575221238938</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1386251745484818</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9495575221238937</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.948768402724116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.92625368731564</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.163938623930638</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9492625368731563</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9475150130192962</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.27040314650935</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3567204627102505</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8727040314650935</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8700857043994386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4268315093630615</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8389241133367351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.35727817714687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4432695999663944</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8135727817714686</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8078870231446631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.88200589970502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2568539226214246</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8988200589970502</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.89869626171634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.15339233038348</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2178054677885181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9215339233038348</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9207601765059437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.10914454277285</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3374819988923264</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8710914454277287</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8689534735996144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.94395280235987</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2874450568391088</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9094395280235987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9059754689590147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.36578171091445</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4725379327234502</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8436578171091446</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8357132033060127</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.30678466076697</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4298163768059263</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8430678466076695</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8391336028684476</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.63716814159292</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3688601445523091</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8663716814159292</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8625019268894221</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.31563421828909</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3948666747310199</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.873156342182891</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8708610337773044</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.57522123893806</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4901058592067178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8557522123893806</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8476774927278615</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>78.73156342182891</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6092733591174087</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7873156342182891</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7732696704235156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.22436180243774</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1432090583006357</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9622436180243774</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9621726190317172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.60766961651917</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1002473215303629</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9660766961651918</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9659887552087889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.63126843657817</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1589674442697287</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9463126843657816</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9450211601280414</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.98626862400769</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3425047817805595</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8798626862400771</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.876235732108228</v>
       </c>
     </row>
   </sheetData>
